--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2595953333333333</v>
+        <v>0.302256</v>
       </c>
       <c r="H2">
-        <v>0.778786</v>
+        <v>0.906768</v>
       </c>
       <c r="I2">
-        <v>0.1865650170889249</v>
+        <v>0.2472511157095891</v>
       </c>
       <c r="J2">
-        <v>0.1865650170889249</v>
+        <v>0.2472511157095891</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1495096666666667</v>
+        <v>0.123057</v>
       </c>
       <c r="N2">
-        <v>0.448529</v>
+        <v>0.369171</v>
       </c>
       <c r="O2">
-        <v>0.03509823662522812</v>
+        <v>0.04100603298112619</v>
       </c>
       <c r="P2">
-        <v>0.03509823662522812</v>
+        <v>0.04100603298112619</v>
       </c>
       <c r="Q2">
-        <v>0.03881201175488889</v>
+        <v>0.037194716592</v>
       </c>
       <c r="R2">
-        <v>0.349308105794</v>
+        <v>0.334752449328</v>
       </c>
       <c r="S2">
-        <v>0.006548103115776814</v>
+        <v>0.01013878740540766</v>
       </c>
       <c r="T2">
-        <v>0.006548103115776814</v>
+        <v>0.01013878740540766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2595953333333333</v>
+        <v>0.302256</v>
       </c>
       <c r="H3">
-        <v>0.778786</v>
+        <v>0.906768</v>
       </c>
       <c r="I3">
-        <v>0.1865650170889249</v>
+        <v>0.2472511157095891</v>
       </c>
       <c r="J3">
-        <v>0.1865650170889249</v>
+        <v>0.2472511157095891</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>4.093148333333334</v>
+        <v>0.025187</v>
       </c>
       <c r="N3">
-        <v>12.279445</v>
+        <v>0.075561</v>
       </c>
       <c r="O3">
-        <v>0.9608896330816388</v>
+        <v>0.00839301260956813</v>
       </c>
       <c r="P3">
-        <v>0.9608896330816387</v>
+        <v>0.00839301260956813</v>
       </c>
       <c r="Q3">
-        <v>1.062562205974445</v>
+        <v>0.007612921872000001</v>
       </c>
       <c r="R3">
-        <v>9.56305985377</v>
+        <v>0.06851629684800001</v>
       </c>
       <c r="S3">
-        <v>0.1792683908164467</v>
+        <v>0.00207518173188037</v>
       </c>
       <c r="T3">
-        <v>0.1792683908164467</v>
+        <v>0.00207518173188037</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2595953333333333</v>
+        <v>0.302256</v>
       </c>
       <c r="H4">
-        <v>0.778786</v>
+        <v>0.906768</v>
       </c>
       <c r="I4">
-        <v>0.1865650170889249</v>
+        <v>0.2472511157095891</v>
       </c>
       <c r="J4">
-        <v>0.1865650170889249</v>
+        <v>0.2472511157095891</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.01709066666666667</v>
+        <v>2.852704666666666</v>
       </c>
       <c r="N4">
-        <v>0.05127200000000001</v>
+        <v>8.558114</v>
       </c>
       <c r="O4">
-        <v>0.0040121302931331</v>
+        <v>0.9506009544093057</v>
       </c>
       <c r="P4">
-        <v>0.0040121302931331</v>
+        <v>0.9506009544093057</v>
       </c>
       <c r="Q4">
-        <v>0.004436657310222222</v>
+        <v>0.862247101728</v>
       </c>
       <c r="R4">
-        <v>0.039929915792</v>
+        <v>7.760223915552</v>
       </c>
       <c r="S4">
-        <v>0.0007485231567013703</v>
+        <v>0.2350371465723011</v>
       </c>
       <c r="T4">
-        <v>0.0007485231567013703</v>
+        <v>0.2350371465723011</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.008244333333333334</v>
+      </c>
+      <c r="H5">
+        <v>0.024733</v>
+      </c>
+      <c r="I5">
+        <v>0.006744020350128443</v>
+      </c>
+      <c r="J5">
+        <v>0.006744020350128443</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.6832980000000001</v>
-      </c>
-      <c r="H5">
-        <v>2.049894</v>
-      </c>
-      <c r="I5">
-        <v>0.4910700874700941</v>
-      </c>
-      <c r="J5">
-        <v>0.4910700874700941</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1495096666666667</v>
+        <v>0.123057</v>
       </c>
       <c r="N5">
-        <v>0.448529</v>
+        <v>0.369171</v>
       </c>
       <c r="O5">
-        <v>0.03509823662522812</v>
+        <v>0.04100603298112619</v>
       </c>
       <c r="P5">
-        <v>0.03509823662522812</v>
+        <v>0.04100603298112619</v>
       </c>
       <c r="Q5">
-        <v>0.102159656214</v>
+        <v>0.001014522927</v>
       </c>
       <c r="R5">
-        <v>0.9194369059259999</v>
+        <v>0.009130706343000001</v>
       </c>
       <c r="S5">
-        <v>0.01723569412959683</v>
+        <v>0.0002765455209027531</v>
       </c>
       <c r="T5">
-        <v>0.01723569412959683</v>
+        <v>0.0002765455209027531</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.6832980000000001</v>
+        <v>0.008244333333333334</v>
       </c>
       <c r="H6">
-        <v>2.049894</v>
+        <v>0.024733</v>
       </c>
       <c r="I6">
-        <v>0.4910700874700941</v>
+        <v>0.006744020350128443</v>
       </c>
       <c r="J6">
-        <v>0.4910700874700941</v>
+        <v>0.006744020350128443</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>4.093148333333334</v>
+        <v>0.025187</v>
       </c>
       <c r="N6">
-        <v>12.279445</v>
+        <v>0.075561</v>
       </c>
       <c r="O6">
-        <v>0.9608896330816388</v>
+        <v>0.00839301260956813</v>
       </c>
       <c r="P6">
-        <v>0.9608896330816387</v>
+        <v>0.00839301260956813</v>
       </c>
       <c r="Q6">
-        <v>2.79684006987</v>
+        <v>0.0002076500236666667</v>
       </c>
       <c r="R6">
-        <v>25.17156062883</v>
+        <v>0.001868850213</v>
       </c>
       <c r="S6">
-        <v>0.471864156166507</v>
+        <v>5.660264783781211E-05</v>
       </c>
       <c r="T6">
-        <v>0.471864156166507</v>
+        <v>5.660264783781209E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.008244333333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.024733</v>
+      </c>
+      <c r="I7">
+        <v>0.006744020350128443</v>
+      </c>
+      <c r="J7">
+        <v>0.006744020350128443</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.6832980000000001</v>
-      </c>
-      <c r="H7">
-        <v>2.049894</v>
-      </c>
-      <c r="I7">
-        <v>0.4910700874700941</v>
-      </c>
-      <c r="J7">
-        <v>0.4910700874700941</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01709066666666667</v>
+        <v>2.852704666666666</v>
       </c>
       <c r="N7">
-        <v>0.05127200000000001</v>
+        <v>8.558114</v>
       </c>
       <c r="O7">
-        <v>0.0040121302931331</v>
+        <v>0.9506009544093057</v>
       </c>
       <c r="P7">
-        <v>0.0040121302931331</v>
+        <v>0.9506009544093057</v>
       </c>
       <c r="Q7">
-        <v>0.011678018352</v>
+        <v>0.02351864817355556</v>
       </c>
       <c r="R7">
-        <v>0.105102165168</v>
+        <v>0.211667833562</v>
       </c>
       <c r="S7">
-        <v>0.001970237173990286</v>
+        <v>0.006410872181387878</v>
       </c>
       <c r="T7">
-        <v>0.001970237173990286</v>
+        <v>0.006410872181387878</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,61 +894,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4485536666666667</v>
+        <v>0.592361</v>
       </c>
       <c r="H8">
-        <v>1.345661</v>
+        <v>1.777083</v>
       </c>
       <c r="I8">
-        <v>0.322364895440981</v>
+        <v>0.4845624839634215</v>
       </c>
       <c r="J8">
-        <v>0.322364895440981</v>
+        <v>0.4845624839634214</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1495096666666667</v>
+        <v>0.123057</v>
       </c>
       <c r="N8">
-        <v>0.448529</v>
+        <v>0.369171</v>
       </c>
       <c r="O8">
-        <v>0.03509823662522812</v>
+        <v>0.04100603298112619</v>
       </c>
       <c r="P8">
-        <v>0.03509823662522812</v>
+        <v>0.04100603298112619</v>
       </c>
       <c r="Q8">
-        <v>0.06706310918544445</v>
+        <v>0.072894167577</v>
       </c>
       <c r="R8">
-        <v>0.6035679826689999</v>
+        <v>0.656047508193</v>
       </c>
       <c r="S8">
-        <v>0.01131443937985447</v>
+        <v>0.01986998519882049</v>
       </c>
       <c r="T8">
-        <v>0.01131443937985447</v>
+        <v>0.01986998519882049</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,61 +956,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.592361</v>
+      </c>
+      <c r="H9">
+        <v>1.777083</v>
+      </c>
+      <c r="I9">
+        <v>0.4845624839634215</v>
+      </c>
+      <c r="J9">
+        <v>0.4845624839634214</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.4485536666666667</v>
-      </c>
-      <c r="H9">
-        <v>1.345661</v>
-      </c>
-      <c r="I9">
-        <v>0.322364895440981</v>
-      </c>
-      <c r="J9">
-        <v>0.322364895440981</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>4.093148333333334</v>
+        <v>0.025187</v>
       </c>
       <c r="N9">
-        <v>12.279445</v>
+        <v>0.075561</v>
       </c>
       <c r="O9">
-        <v>0.9608896330816388</v>
+        <v>0.00839301260956813</v>
       </c>
       <c r="P9">
-        <v>0.9608896330816387</v>
+        <v>0.00839301260956813</v>
       </c>
       <c r="Q9">
-        <v>1.835996693127222</v>
+        <v>0.014919796507</v>
       </c>
       <c r="R9">
-        <v>16.523970238145</v>
+        <v>0.134278168563</v>
       </c>
       <c r="S9">
-        <v>0.309757086098685</v>
+        <v>0.004066939038028652</v>
       </c>
       <c r="T9">
-        <v>0.309757086098685</v>
+        <v>0.004066939038028651</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1018,247 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.592361</v>
+      </c>
+      <c r="H10">
+        <v>1.777083</v>
+      </c>
+      <c r="I10">
+        <v>0.4845624839634215</v>
+      </c>
+      <c r="J10">
+        <v>0.4845624839634214</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.852704666666666</v>
+      </c>
+      <c r="N10">
+        <v>8.558114</v>
+      </c>
+      <c r="O10">
+        <v>0.9506009544093057</v>
+      </c>
+      <c r="P10">
+        <v>0.9506009544093057</v>
+      </c>
+      <c r="Q10">
+        <v>1.689830989051333</v>
+      </c>
+      <c r="R10">
+        <v>15.208478901462</v>
+      </c>
+      <c r="S10">
+        <v>0.4606255597265724</v>
+      </c>
+      <c r="T10">
+        <v>0.4606255597265723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.4485536666666667</v>
-      </c>
-      <c r="H10">
-        <v>1.345661</v>
-      </c>
-      <c r="I10">
-        <v>0.322364895440981</v>
-      </c>
-      <c r="J10">
-        <v>0.322364895440981</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.01709066666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.05127200000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.0040121302931331</v>
-      </c>
-      <c r="P10">
-        <v>0.0040121302931331</v>
-      </c>
-      <c r="Q10">
-        <v>0.007666081199111111</v>
-      </c>
-      <c r="R10">
-        <v>0.06899473079200001</v>
-      </c>
-      <c r="S10">
-        <v>0.001293369962441444</v>
-      </c>
-      <c r="T10">
-        <v>0.001293369962441444</v>
+      <c r="G11">
+        <v>0.3196043333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.9588129999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.261442379976861</v>
+      </c>
+      <c r="J11">
+        <v>0.2614423799768609</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.123057</v>
+      </c>
+      <c r="N11">
+        <v>0.369171</v>
+      </c>
+      <c r="O11">
+        <v>0.04100603298112619</v>
+      </c>
+      <c r="P11">
+        <v>0.04100603298112619</v>
+      </c>
+      <c r="Q11">
+        <v>0.039329550447</v>
+      </c>
+      <c r="R11">
+        <v>0.353965954023</v>
+      </c>
+      <c r="S11">
+        <v>0.01072071485599529</v>
+      </c>
+      <c r="T11">
+        <v>0.01072071485599528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.3196043333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.9588129999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.261442379976861</v>
+      </c>
+      <c r="J12">
+        <v>0.2614423799768609</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.025187</v>
+      </c>
+      <c r="N12">
+        <v>0.075561</v>
+      </c>
+      <c r="O12">
+        <v>0.00839301260956813</v>
+      </c>
+      <c r="P12">
+        <v>0.00839301260956813</v>
+      </c>
+      <c r="Q12">
+        <v>0.008049874343666667</v>
+      </c>
+      <c r="R12">
+        <v>0.072448869093</v>
+      </c>
+      <c r="S12">
+        <v>0.002194289191821297</v>
+      </c>
+      <c r="T12">
+        <v>0.002194289191821296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3196043333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.9588129999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.261442379976861</v>
+      </c>
+      <c r="J13">
+        <v>0.2614423799768609</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.852704666666666</v>
+      </c>
+      <c r="N13">
+        <v>8.558114</v>
+      </c>
+      <c r="O13">
+        <v>0.9506009544093057</v>
+      </c>
+      <c r="P13">
+        <v>0.9506009544093057</v>
+      </c>
+      <c r="Q13">
+        <v>0.9117367731868888</v>
+      </c>
+      <c r="R13">
+        <v>8.205630958681999</v>
+      </c>
+      <c r="S13">
+        <v>0.2485273759290444</v>
+      </c>
+      <c r="T13">
+        <v>0.2485273759290444</v>
       </c>
     </row>
   </sheetData>
